--- a/calgary_landcover_reclassified.xlsx
+++ b/calgary_landcover_reclassified.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenna\Documents\GitHub\CPLN675_midterm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AAA5713-060B-4498-AC5C-DA9ED3909EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B1685C-1E8F-4035-B128-8CB0C53164D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1434" yWindow="1434" windowWidth="17280" windowHeight="8994" xr2:uid="{9CB0F6C2-2AD1-4348-A0D4-DF453222B079}"/>
+    <workbookView xWindow="7776" yWindow="1122" windowWidth="3750" windowHeight="6090" activeTab="1" xr2:uid="{9CB0F6C2-2AD1-4348-A0D4-DF453222B079}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all categories" sheetId="1" r:id="rId1"/>
+    <sheet name="imperv or not" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>lc_cat</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>StormPond</t>
+  </si>
+  <si>
+    <t>impervious = 0</t>
+  </si>
+  <si>
+    <t>non_impervious = 1</t>
+  </si>
+  <si>
+    <t>imperv_or_nonimperv</t>
   </si>
 </sst>
 </file>
@@ -471,13 +481,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02078BC4-E1A5-467D-8554-572920A46494}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35.47265625" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -682,4 +693,285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BD1511-ADFE-4539-ACBB-99E438907269}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="24.3671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>